--- a/data_year/zb/对外经济贸易/对外经济合作.xlsx
+++ b/data_year/zb/对外经济贸易/对外经济合作.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,519 +468,325 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369300</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>470100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>186800</v>
+      </c>
       <c r="D2" t="n">
-        <v>2597</v>
+        <v>9544</v>
       </c>
       <c r="E2" t="n">
-        <v>117.19</v>
+        <v>1343.67</v>
       </c>
       <c r="F2" t="n">
-        <v>837900</v>
+        <v>9217000</v>
       </c>
       <c r="G2" t="n">
-        <v>55600</v>
+        <v>376500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>414700</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>488400</v>
+      </c>
+      <c r="C3" t="n">
+        <v>209100</v>
+      </c>
       <c r="D3" t="n">
-        <v>5836</v>
+        <v>6381</v>
       </c>
       <c r="E3" t="n">
-        <v>130.39</v>
+        <v>1423.32</v>
       </c>
       <c r="F3" t="n">
-        <v>889900</v>
+        <v>10342400</v>
       </c>
       <c r="G3" t="n">
-        <v>60000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410400</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>505600</v>
+      </c>
+      <c r="C4" t="n">
+        <v>278400</v>
+      </c>
       <c r="D4" t="n">
-        <v>4036</v>
+        <v>6710</v>
       </c>
       <c r="E4" t="n">
-        <v>150.55</v>
+        <v>1565.29</v>
       </c>
       <c r="F4" t="n">
-        <v>1119400</v>
+        <v>11659700</v>
       </c>
       <c r="G4" t="n">
-        <v>78500</v>
+        <v>344600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>429700</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>482600</v>
+      </c>
+      <c r="C5" t="n">
+        <v>255700</v>
+      </c>
       <c r="D5" t="n">
-        <v>3708</v>
+        <v>11578</v>
       </c>
       <c r="E5" t="n">
-        <v>176.67</v>
+        <v>1716.29</v>
       </c>
       <c r="F5" t="n">
-        <v>1383700</v>
+        <v>13714300</v>
       </c>
       <c r="G5" t="n">
-        <v>94000</v>
+        <v>370100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>419400</v>
+        <v>596900</v>
       </c>
       <c r="C6" t="n">
-        <v>173040</v>
+        <v>292600</v>
       </c>
       <c r="D6" t="n">
-        <v>6694</v>
+        <v>7740</v>
       </c>
       <c r="E6" t="n">
-        <v>238.44</v>
+        <v>1917.56</v>
       </c>
       <c r="F6" t="n">
-        <v>1746800</v>
+        <v>14241100</v>
       </c>
       <c r="G6" t="n">
-        <v>114700</v>
+        <v>408900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418700</v>
+        <v>618300</v>
       </c>
       <c r="C7" t="n">
-        <v>183402</v>
+        <v>276800</v>
       </c>
       <c r="D7" t="n">
-        <v>9502</v>
+        <v>8662</v>
       </c>
       <c r="E7" t="n">
-        <v>296.14</v>
+        <v>2100.74</v>
       </c>
       <c r="F7" t="n">
-        <v>2176300</v>
+        <v>15407400</v>
       </c>
       <c r="G7" t="n">
-        <v>144800</v>
+        <v>408600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>475200</v>
+        <v>596000</v>
       </c>
       <c r="C8" t="n">
-        <v>214807</v>
+        <v>264000</v>
       </c>
       <c r="D8" t="n">
-        <v>12996</v>
+        <v>19157</v>
       </c>
       <c r="E8" t="n">
-        <v>660.045</v>
+        <v>2440.1</v>
       </c>
       <c r="F8" t="n">
-        <v>2999300</v>
+        <v>15941700</v>
       </c>
       <c r="G8" t="n">
-        <v>198598</v>
+        <v>372900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>505100</v>
+        <v>602300</v>
       </c>
       <c r="C9" t="n">
-        <v>214869</v>
+        <v>300200</v>
       </c>
       <c r="D9" t="n">
-        <v>6282</v>
+        <v>22774</v>
       </c>
       <c r="E9" t="n">
-        <v>776.2076</v>
+        <v>2652.76</v>
       </c>
       <c r="F9" t="n">
-        <v>4064300</v>
+        <v>16858700</v>
       </c>
       <c r="G9" t="n">
-        <v>236002</v>
+        <v>376800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>467110</v>
+        <v>606100</v>
       </c>
       <c r="C10" t="n">
-        <v>224859</v>
+        <v>265000</v>
       </c>
       <c r="D10" t="n">
-        <v>5411</v>
+        <v>10985</v>
       </c>
       <c r="E10" t="n">
-        <v>1045.6216</v>
+        <v>2418.04</v>
       </c>
       <c r="F10" t="n">
-        <v>5661200</v>
+        <v>16904400</v>
       </c>
       <c r="G10" t="n">
-        <v>271613</v>
+        <v>390700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>450277</v>
+        <v>624100</v>
       </c>
       <c r="C11" t="n">
-        <v>180091</v>
+        <v>276000</v>
       </c>
       <c r="D11" t="n">
-        <v>7280</v>
+        <v>11932</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.0961</v>
+        <v>2602.45</v>
       </c>
       <c r="F11" t="n">
-        <v>7770600</v>
+        <v>17290100</v>
       </c>
       <c r="G11" t="n">
-        <v>326861</v>
+        <v>368100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>470095</v>
+        <v>349800</v>
       </c>
       <c r="C12" t="n">
-        <v>186800</v>
+        <v>162300</v>
       </c>
       <c r="D12" t="n">
-        <v>9544</v>
+        <v>9933</v>
       </c>
       <c r="E12" t="n">
-        <v>1343.6696</v>
+        <v>2555.36</v>
       </c>
       <c r="F12" t="n">
-        <v>9217000</v>
+        <v>15593500</v>
       </c>
       <c r="G12" t="n">
-        <v>376510</v>
+        <v>273400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488409</v>
+        <v>333900</v>
       </c>
       <c r="C13" t="n">
-        <v>209065</v>
+        <v>189800</v>
       </c>
       <c r="D13" t="n">
-        <v>6381</v>
+        <v>10786</v>
       </c>
       <c r="E13" t="n">
-        <v>1423.32</v>
+        <v>2584.94</v>
       </c>
       <c r="F13" t="n">
-        <v>10342400</v>
+        <v>15494300</v>
       </c>
       <c r="G13" t="n">
-        <v>324000</v>
+        <v>258400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>505563</v>
+        <v>543000</v>
       </c>
       <c r="C14" t="n">
-        <v>278380</v>
+        <v>259000</v>
       </c>
       <c r="D14" t="n">
-        <v>6710</v>
+        <v>9823</v>
       </c>
       <c r="E14" t="n">
-        <v>1565.2922</v>
+        <v>2530.7</v>
       </c>
       <c r="F14" t="n">
-        <v>11659697</v>
-      </c>
-      <c r="G14" t="n">
-        <v>344618</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>482611</v>
-      </c>
-      <c r="C15" t="n">
-        <v>255674</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11578</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1716.2946</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13714273</v>
-      </c>
-      <c r="G15" t="n">
-        <v>370144</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>596881</v>
-      </c>
-      <c r="C16" t="n">
-        <v>292570</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7740</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1917.564</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14241066</v>
-      </c>
-      <c r="G16" t="n">
-        <v>408851</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>618295</v>
-      </c>
-      <c r="C17" t="n">
-        <v>276800</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8662</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2100.7431</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15407423</v>
-      </c>
-      <c r="G17" t="n">
-        <v>408565</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>595976</v>
-      </c>
-      <c r="C18" t="n">
-        <v>264009</v>
-      </c>
-      <c r="D18" t="n">
-        <v>19157</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2440.1009</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15941749</v>
-      </c>
-      <c r="G18" t="n">
-        <v>372880</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>602342</v>
-      </c>
-      <c r="C19" t="n">
-        <v>300249</v>
-      </c>
-      <c r="D19" t="n">
-        <v>22774</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2652.7599</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16858661</v>
-      </c>
-      <c r="G19" t="n">
-        <v>376827</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>606102</v>
-      </c>
-      <c r="C20" t="n">
-        <v>265000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10985</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2418.0445</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16904403</v>
-      </c>
-      <c r="G20" t="n">
-        <v>390719</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>624077</v>
-      </c>
-      <c r="C21" t="n">
-        <v>276012</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11932</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2602.4542</v>
-      </c>
-      <c r="F21" t="n">
-        <v>17290137</v>
-      </c>
-      <c r="G21" t="n">
-        <v>368063</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>349752</v>
-      </c>
-      <c r="C22" t="n">
-        <v>162334</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9933</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2555.35610057</v>
-      </c>
-      <c r="F22" t="n">
-        <v>15593515.8815</v>
-      </c>
-      <c r="G22" t="n">
-        <v>273434</v>
-      </c>
+        <v>15499000</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
